--- a/10_SyncSubtitles/A3_Excel Automaiton/YanSoo_Spec.xlsx
+++ b/10_SyncSubtitles/A3_Excel Automaiton/YanSoo_Spec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\05_Send\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\05_Send\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D926CE9A-4A55-4FE9-B5DC-2DA4EAFD83E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC91A8D-C9B8-43CF-9829-5603B7387FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9435" yWindow="1815" windowWidth="27285" windowHeight="18495" xr2:uid="{7A4E816D-45D9-496E-8D4D-938447092D62}"/>
+    <workbookView xWindow="40710" yWindow="1935" windowWidth="30600" windowHeight="19665" xr2:uid="{7A4E816D-45D9-496E-8D4D-938447092D62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>W-1</t>
   </si>
@@ -145,6 +134,18 @@
   </si>
   <si>
     <t>stable</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>casing</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>well_rad</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -740,549 +741,830 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="12.25" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="15.125" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="3" max="4" width="10.25" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="12.25" customWidth="1"/>
+    <col min="8" max="8" width="15.625" customWidth="1"/>
+    <col min="9" max="9" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21.95" customHeight="1">
+    <row r="1" spans="1:8" ht="21.95" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="21.95" customHeight="1">
+    <row r="2" spans="1:8" ht="21.95" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2">
-        <v>100</v>
-      </c>
-      <c r="D2" s="3">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2">
+        <v>200</v>
+      </c>
+      <c r="E2" s="2">
+        <v>500</v>
+      </c>
+      <c r="F2" s="2">
+        <v>100</v>
+      </c>
+      <c r="G2" s="3">
         <v>18.3</v>
       </c>
-      <c r="E2" s="3">
+      <c r="H2" s="3">
         <v>41.25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="21.95" customHeight="1">
+    <row r="3" spans="1:8" ht="21.95" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>100</v>
-      </c>
-      <c r="D3" s="4">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1">
+        <v>200</v>
+      </c>
+      <c r="E3" s="1">
+        <v>500</v>
+      </c>
+      <c r="F3" s="1">
+        <v>100</v>
+      </c>
+      <c r="G3" s="4">
         <v>18.75</v>
       </c>
-      <c r="E3" s="4">
+      <c r="H3" s="4">
         <v>40.32</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="21.95" customHeight="1">
+    <row r="4" spans="1:8" ht="21.95" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2">
-        <v>100</v>
-      </c>
-      <c r="D4" s="3">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2">
+        <v>200</v>
+      </c>
+      <c r="E4" s="2">
+        <v>500</v>
+      </c>
+      <c r="F4" s="2">
+        <v>100</v>
+      </c>
+      <c r="G4" s="3">
         <v>19.23</v>
       </c>
-      <c r="E4" s="3">
+      <c r="H4" s="3">
         <v>39.47</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="21.95" customHeight="1">
+    <row r="5" spans="1:8" ht="21.95" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1">
-        <v>100</v>
-      </c>
-      <c r="D5" s="4">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1">
+        <v>200</v>
+      </c>
+      <c r="E5" s="1">
+        <v>500</v>
+      </c>
+      <c r="F5" s="1">
+        <v>100</v>
+      </c>
+      <c r="G5" s="4">
         <v>18.5</v>
       </c>
-      <c r="E5" s="4">
+      <c r="H5" s="4">
         <v>42.44</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="21.95" customHeight="1">
+    <row r="6" spans="1:8" ht="21.95" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2">
-        <v>100</v>
-      </c>
-      <c r="D6" s="3">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2">
+        <v>200</v>
+      </c>
+      <c r="E6" s="2">
+        <v>500</v>
+      </c>
+      <c r="F6" s="2">
+        <v>100</v>
+      </c>
+      <c r="G6" s="3">
         <v>19.59</v>
       </c>
-      <c r="E6" s="3">
+      <c r="H6" s="3">
         <v>41.36</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="21.95" customHeight="1">
+    <row r="7" spans="1:8" ht="21.95" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>100</v>
-      </c>
-      <c r="D7" s="4">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1">
+        <v>200</v>
+      </c>
+      <c r="E7" s="1">
+        <v>500</v>
+      </c>
+      <c r="F7" s="1">
+        <v>100</v>
+      </c>
+      <c r="G7" s="4">
         <v>19.100000000000001</v>
       </c>
-      <c r="E7" s="4">
+      <c r="H7" s="4">
         <v>45.32</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="21.95" customHeight="1">
+    <row r="8" spans="1:8" ht="21.95" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2">
-        <v>100</v>
-      </c>
-      <c r="D8" s="3">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2">
+        <v>200</v>
+      </c>
+      <c r="E8" s="2">
+        <v>500</v>
+      </c>
+      <c r="F8" s="2">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3">
         <v>18.52</v>
       </c>
-      <c r="E8" s="3">
+      <c r="H8" s="3">
         <v>44.56</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="21.95" customHeight="1">
+    <row r="9" spans="1:8" ht="21.95" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1">
-        <v>100</v>
-      </c>
-      <c r="D9" s="4">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1">
+        <v>200</v>
+      </c>
+      <c r="E9" s="1">
+        <v>500</v>
+      </c>
+      <c r="F9" s="1">
+        <v>100</v>
+      </c>
+      <c r="G9" s="4">
         <v>19.75</v>
       </c>
-      <c r="E9" s="4">
+      <c r="H9" s="4">
         <v>40.58</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="21.95" customHeight="1">
+    <row r="10" spans="1:8" ht="21.95" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="C10" s="2">
-        <v>100</v>
-      </c>
-      <c r="D10" s="3">
+        <v>30</v>
+      </c>
+      <c r="D10" s="2">
+        <v>200</v>
+      </c>
+      <c r="E10" s="2">
+        <v>500</v>
+      </c>
+      <c r="F10" s="2">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3">
         <v>20.46</v>
       </c>
-      <c r="E10" s="3">
+      <c r="H10" s="3">
         <v>44.54</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="21.95" customHeight="1">
+    <row r="11" spans="1:8" ht="21.95" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1">
-        <v>100</v>
-      </c>
-      <c r="D11" s="4">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1">
+        <v>200</v>
+      </c>
+      <c r="E11" s="1">
+        <v>500</v>
+      </c>
+      <c r="F11" s="1">
+        <v>100</v>
+      </c>
+      <c r="G11" s="4">
         <v>19.739999999999998</v>
       </c>
-      <c r="E11" s="4">
+      <c r="H11" s="4">
         <v>42.37</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="21.95" customHeight="1">
+    <row r="12" spans="1:8" ht="21.95" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="C12" s="2">
-        <v>100</v>
-      </c>
-      <c r="D12" s="3">
+        <v>30</v>
+      </c>
+      <c r="D12" s="2">
+        <v>200</v>
+      </c>
+      <c r="E12" s="2">
+        <v>500</v>
+      </c>
+      <c r="F12" s="2">
+        <v>100</v>
+      </c>
+      <c r="G12" s="3">
         <v>19.93</v>
       </c>
-      <c r="E12" s="3">
+      <c r="H12" s="3">
         <v>45.36</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="21.95" customHeight="1">
+    <row r="13" spans="1:8" ht="21.95" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1">
-        <v>100</v>
-      </c>
-      <c r="D13" s="4">
+        <v>30</v>
+      </c>
+      <c r="D13" s="1">
+        <v>200</v>
+      </c>
+      <c r="E13" s="1">
+        <v>500</v>
+      </c>
+      <c r="F13" s="1">
+        <v>100</v>
+      </c>
+      <c r="G13" s="4">
         <v>18.37</v>
       </c>
-      <c r="E13" s="4">
+      <c r="H13" s="4">
         <v>44.31</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="21.95" customHeight="1">
+    <row r="14" spans="1:8" ht="21.95" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="C14" s="2">
-        <v>100</v>
-      </c>
-      <c r="D14" s="3">
+        <v>30</v>
+      </c>
+      <c r="D14" s="2">
+        <v>200</v>
+      </c>
+      <c r="E14" s="2">
+        <v>500</v>
+      </c>
+      <c r="F14" s="2">
+        <v>100</v>
+      </c>
+      <c r="G14" s="3">
         <v>19.239999999999998</v>
       </c>
-      <c r="E14" s="3">
+      <c r="H14" s="3">
         <v>41.32</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="21.95" customHeight="1">
+    <row r="15" spans="1:8" ht="21.95" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="C15" s="1">
-        <v>100</v>
-      </c>
-      <c r="D15" s="4">
+        <v>30</v>
+      </c>
+      <c r="D15" s="1">
+        <v>200</v>
+      </c>
+      <c r="E15" s="1">
+        <v>500</v>
+      </c>
+      <c r="F15" s="1">
+        <v>100</v>
+      </c>
+      <c r="G15" s="4">
         <v>19.7</v>
       </c>
-      <c r="E15" s="4">
+      <c r="H15" s="4">
         <v>43.5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="21.95" customHeight="1">
+    <row r="16" spans="1:8" ht="21.95" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="C16" s="2">
-        <v>100</v>
-      </c>
-      <c r="D16" s="3">
+        <v>30</v>
+      </c>
+      <c r="D16" s="2">
+        <v>200</v>
+      </c>
+      <c r="E16" s="2">
+        <v>500</v>
+      </c>
+      <c r="F16" s="2">
+        <v>100</v>
+      </c>
+      <c r="G16" s="3">
         <v>20.350000000000001</v>
       </c>
-      <c r="E16" s="3">
+      <c r="H16" s="3">
         <v>40.369999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="21.95" customHeight="1">
+    <row r="17" spans="1:8" ht="21.95" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="C17" s="1">
-        <v>100</v>
-      </c>
-      <c r="D17" s="4">
+        <v>30</v>
+      </c>
+      <c r="D17" s="1">
+        <v>200</v>
+      </c>
+      <c r="E17" s="1">
+        <v>500</v>
+      </c>
+      <c r="F17" s="1">
+        <v>100</v>
+      </c>
+      <c r="G17" s="4">
         <v>21.44</v>
       </c>
-      <c r="E17" s="4">
+      <c r="H17" s="4">
         <v>45.32</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="21.95" customHeight="1">
+    <row r="18" spans="1:8" ht="21.95" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="C18" s="2">
-        <v>100</v>
-      </c>
-      <c r="D18" s="3">
+        <v>30</v>
+      </c>
+      <c r="D18" s="2">
+        <v>200</v>
+      </c>
+      <c r="E18" s="2">
+        <v>500</v>
+      </c>
+      <c r="F18" s="2">
+        <v>100</v>
+      </c>
+      <c r="G18" s="3">
         <v>19.309999999999999</v>
       </c>
-      <c r="E18" s="3">
+      <c r="H18" s="3">
         <v>43.24</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="21.95" customHeight="1">
+    <row r="19" spans="1:8" ht="21.95" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="C19" s="1">
-        <v>100</v>
-      </c>
-      <c r="D19" s="4">
+        <v>30</v>
+      </c>
+      <c r="D19" s="1">
+        <v>200</v>
+      </c>
+      <c r="E19" s="1">
+        <v>500</v>
+      </c>
+      <c r="F19" s="1">
+        <v>100</v>
+      </c>
+      <c r="G19" s="4">
         <v>18.760000000000002</v>
       </c>
-      <c r="E19" s="4">
+      <c r="H19" s="4">
         <v>45.45</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="21.95" customHeight="1">
+    <row r="20" spans="1:8" ht="21.95" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="C20" s="2">
-        <v>100</v>
-      </c>
-      <c r="D20" s="3">
+        <v>30</v>
+      </c>
+      <c r="D20" s="2">
+        <v>200</v>
+      </c>
+      <c r="E20" s="2">
+        <v>500</v>
+      </c>
+      <c r="F20" s="2">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
         <v>19.72</v>
       </c>
-      <c r="E20" s="3">
+      <c r="H20" s="3">
         <v>39.479999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="21.95" customHeight="1">
+    <row r="21" spans="1:8" ht="21.95" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="C21" s="1">
-        <v>100</v>
-      </c>
-      <c r="D21" s="4">
+        <v>30</v>
+      </c>
+      <c r="D21" s="1">
+        <v>200</v>
+      </c>
+      <c r="E21" s="1">
+        <v>500</v>
+      </c>
+      <c r="F21" s="1">
+        <v>100</v>
+      </c>
+      <c r="G21" s="4">
         <v>20.32</v>
       </c>
-      <c r="E21" s="4">
+      <c r="H21" s="4">
         <v>45.39</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="21.95" customHeight="1">
+    <row r="22" spans="1:8" ht="21.95" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="C22" s="2">
-        <v>100</v>
-      </c>
-      <c r="D22" s="3">
+        <v>30</v>
+      </c>
+      <c r="D22" s="2">
+        <v>200</v>
+      </c>
+      <c r="E22" s="2">
+        <v>500</v>
+      </c>
+      <c r="F22" s="2">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
         <v>21.32</v>
       </c>
-      <c r="E22" s="3">
+      <c r="H22" s="3">
         <v>46.47</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="21.95" customHeight="1">
+    <row r="23" spans="1:8" ht="21.95" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="C23" s="1">
-        <v>100</v>
-      </c>
-      <c r="D23" s="4">
+        <v>30</v>
+      </c>
+      <c r="D23" s="1">
+        <v>200</v>
+      </c>
+      <c r="E23" s="1">
+        <v>500</v>
+      </c>
+      <c r="F23" s="1">
+        <v>100</v>
+      </c>
+      <c r="G23" s="4">
         <v>20.9</v>
       </c>
-      <c r="E23" s="4">
+      <c r="H23" s="4">
         <v>45.43</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="21.95" customHeight="1">
+    <row r="24" spans="1:8" ht="21.95" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="C24" s="2">
-        <v>100</v>
-      </c>
-      <c r="D24" s="3">
+        <v>30</v>
+      </c>
+      <c r="D24" s="2">
+        <v>200</v>
+      </c>
+      <c r="E24" s="2">
+        <v>500</v>
+      </c>
+      <c r="F24" s="2">
+        <v>100</v>
+      </c>
+      <c r="G24" s="3">
         <v>20.87</v>
       </c>
-      <c r="E24" s="3">
+      <c r="H24" s="3">
         <v>45.94</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="21.95" customHeight="1">
+    <row r="25" spans="1:8" ht="21.95" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="C25" s="1">
-        <v>100</v>
-      </c>
-      <c r="D25" s="4">
+        <v>30</v>
+      </c>
+      <c r="D25" s="1">
+        <v>200</v>
+      </c>
+      <c r="E25" s="1">
+        <v>500</v>
+      </c>
+      <c r="F25" s="1">
+        <v>100</v>
+      </c>
+      <c r="G25" s="4">
         <v>21.33</v>
       </c>
-      <c r="E25" s="4">
+      <c r="H25" s="4">
         <v>48.36</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="21.95" customHeight="1">
+    <row r="26" spans="1:8" ht="21.95" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="2">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="C26" s="2">
-        <v>100</v>
-      </c>
-      <c r="D26" s="3">
+        <v>30</v>
+      </c>
+      <c r="D26" s="2">
+        <v>200</v>
+      </c>
+      <c r="E26" s="2">
+        <v>500</v>
+      </c>
+      <c r="F26" s="2">
+        <v>100</v>
+      </c>
+      <c r="G26" s="3">
         <v>21.45</v>
       </c>
-      <c r="E26" s="3">
+      <c r="H26" s="3">
         <v>45.38</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="21.95" customHeight="1">
+    <row r="27" spans="1:8" ht="21.95" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="C27" s="1">
-        <v>100</v>
-      </c>
-      <c r="D27" s="4">
+        <v>30</v>
+      </c>
+      <c r="D27" s="1">
+        <v>200</v>
+      </c>
+      <c r="E27" s="1">
+        <v>500</v>
+      </c>
+      <c r="F27" s="1">
+        <v>100</v>
+      </c>
+      <c r="G27" s="4">
         <v>22.15</v>
       </c>
-      <c r="E27" s="4">
+      <c r="H27" s="4">
         <v>44.93</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="21.95" customHeight="1">
+    <row r="28" spans="1:8" ht="21.95" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="2">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="C28" s="2">
-        <v>100</v>
-      </c>
-      <c r="D28" s="3">
+        <v>30</v>
+      </c>
+      <c r="D28" s="2">
+        <v>200</v>
+      </c>
+      <c r="E28" s="2">
+        <v>500</v>
+      </c>
+      <c r="F28" s="2">
+        <v>100</v>
+      </c>
+      <c r="G28" s="3">
         <v>21.87</v>
       </c>
-      <c r="E28" s="3">
+      <c r="H28" s="3">
         <v>45.36</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="21.95" customHeight="1">
+    <row r="29" spans="1:8" ht="21.95" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="1">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="C29" s="1">
-        <v>100</v>
-      </c>
-      <c r="D29" s="4">
+        <v>30</v>
+      </c>
+      <c r="D29" s="1">
+        <v>200</v>
+      </c>
+      <c r="E29" s="1">
+        <v>500</v>
+      </c>
+      <c r="F29" s="1">
+        <v>100</v>
+      </c>
+      <c r="G29" s="4">
         <v>20.48</v>
       </c>
-      <c r="E29" s="4">
+      <c r="H29" s="4">
         <v>45.323</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="21.95" customHeight="1">
+    <row r="30" spans="1:8" ht="21.95" customHeight="1">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="2">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="C30" s="2">
-        <v>100</v>
-      </c>
-      <c r="D30" s="3">
+        <v>30</v>
+      </c>
+      <c r="D30" s="2">
+        <v>200</v>
+      </c>
+      <c r="E30" s="2">
+        <v>500</v>
+      </c>
+      <c r="F30" s="2">
+        <v>100</v>
+      </c>
+      <c r="G30" s="3">
         <v>21.2</v>
       </c>
-      <c r="E30" s="3">
+      <c r="H30" s="3">
         <v>43.25</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="21.95" customHeight="1">
+    <row r="31" spans="1:8" ht="21.95" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="1">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="C31" s="1">
-        <v>100</v>
-      </c>
-      <c r="D31" s="4">
+        <v>30</v>
+      </c>
+      <c r="D31" s="1">
+        <v>200</v>
+      </c>
+      <c r="E31" s="1">
+        <v>500</v>
+      </c>
+      <c r="F31" s="1">
+        <v>100</v>
+      </c>
+      <c r="G31" s="4">
         <v>21.72</v>
       </c>
-      <c r="E31" s="4">
+      <c r="H31" s="4">
         <v>45.49</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="21.95" customHeight="1"/>
+    <row r="32" spans="1:8" ht="21.95" customHeight="1"/>
     <row r="33" ht="21.95" customHeight="1"/>
     <row r="34" ht="21.95" customHeight="1"/>
   </sheetData>
